--- a/P0055/09_FICHAS/N4-Var_Datos.xlsx
+++ b/P0055/09_FICHAS/N4-Var_Datos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28221"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,10 +15,21 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -273,6 +284,9 @@
     <t>P0055</t>
   </si>
   <si>
+    <t>V0001</t>
+  </si>
+  <si>
     <t>Composición especies</t>
   </si>
   <si>
@@ -300,20 +314,17 @@
     <t>Columnas BE,BW, BX, BY</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>Incluye datos de la composición de especies de peces en varios municipios y ecosistemas acuáticos de la Mojana: Ciénaga Ciritongo, Ciénaga Corrales, Ciénaga Culebras, Ciénaga El Floral, Ciénaga El Sapo, Ciénaga Granada, Ciénaga Hoyo Grande, Ciénaga La Raya, Ciénaga Las Culebras, Ciénaga Nueva, Río Cauca, Río Nechí</t>
-  </si>
-  <si>
-    <t>V0001</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,9 +657,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:81">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -893,247 +904,247 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:81">
       <c r="A2" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CC2" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BT2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BU2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BV2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BW2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BX2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BY2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CC2" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
